--- a/tests/materials/MechUC/mechuc.xlsx
+++ b/tests/materials/MechUC/mechuc.xlsx
@@ -1,14 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="youngs" sheetId="4" r:id="rId1"/>
-    <sheet name="alpha" sheetId="2" r:id="rId2"/>
+    <sheet name="alpha" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
   <si>
     <t>Analytical</t>
   </si>
@@ -32,24 +31,6 @@
   </si>
   <si>
     <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>Porosity</t>
-  </si>
-  <si>
-    <t>E=a*(1-b*p)*(1-c*(t-273)))</t>
-  </si>
-  <si>
-    <t>Young's Modulus</t>
-  </si>
-  <si>
-    <t>strain</t>
-  </si>
-  <si>
-    <t>y displacement</t>
   </si>
   <si>
     <t>Buck</t>
@@ -64,34 +45,15 @@
     <t>% diff</t>
   </si>
   <si>
-    <t>% difference</t>
-  </si>
-  <si>
-    <t>fixed</t>
-  </si>
-  <si>
-    <t>ym</t>
-  </si>
-  <si>
-    <t>calc</t>
-  </si>
-  <si>
-    <t>x displacement</t>
-  </si>
-  <si>
-    <t>Poissons Ratio</t>
+    <t>#</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
-    <numFmt numFmtId="166" formatCode="0.000E+00"/>
-    <numFmt numFmtId="167" formatCode="0.0000E+00"/>
-    <numFmt numFmtId="170" formatCode="0.000%"/>
-    <numFmt numFmtId="171" formatCode="0.00000E+00"/>
-    <numFmt numFmtId="174" formatCode="0.0000%"/>
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0000E+00"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -142,7 +104,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="236">
+  <cellStyleXfs count="242">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -379,20 +341,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="111" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="111" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="111" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="111" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="236">
+  <cellStyles count="242">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -510,6 +475,9 @@
     <cellStyle name="Followed Hyperlink" xfId="231" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="233" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="241" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -627,6 +595,9 @@
     <cellStyle name="Hyperlink" xfId="230" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="232" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="234" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="236" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="238" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="240" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="111" builtinId="5"/>
   </cellStyles>
@@ -636,52 +607,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>63500</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>4</xdr:col>
-          <xdr:colOff>596900</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="4097" name="Object 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s4097"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -1049,560 +974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J44"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:10">
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10">
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>215000000000</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="1">
-        <v>200000000000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1">
-        <v>9.2E-5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1000000000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10">
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10">
-      <c r="B14" s="1">
-        <v>531.88589999999999</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="D14" s="1">
-        <v>6.2082659999999996E-3</v>
-      </c>
-      <c r="E14" s="5">
-        <f t="shared" ref="E14:E18" si="0">$C$10/G14</f>
-        <v>6.1878502985622122E-3</v>
-      </c>
-      <c r="F14" s="7">
-        <f t="shared" ref="F14:F18" si="1">(D14-E14)/E14</f>
-        <v>3.2993205156451677E-3</v>
-      </c>
-      <c r="G14" s="3">
-        <f>$C$5*(1-$C$6*C14)*(1-$C$7*(B14-273))</f>
-        <v>161607012411.46002</v>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="2:10">
-      <c r="B15" s="1">
-        <v>779.99620000000004</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="D15" s="1">
-        <v>7.4765650000000001E-3</v>
-      </c>
-      <c r="E15" s="5">
-        <f t="shared" si="0"/>
-        <v>7.4484340479552009E-3</v>
-      </c>
-      <c r="F15" s="7">
-        <f t="shared" si="1"/>
-        <v>3.7767605732539119E-3</v>
-      </c>
-      <c r="G15" s="3">
-        <f>$C$5*(1-$C$6*C15)*(1-$C$7*(B15-273))</f>
-        <v>134256407932.42001</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="B16" s="1">
-        <v>1019.996</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D16" s="1">
-        <v>9.2921180000000003E-3</v>
-      </c>
-      <c r="E16" s="5">
-        <f t="shared" si="0"/>
-        <v>9.248881130437871E-3</v>
-      </c>
-      <c r="F16" s="7">
-        <f t="shared" si="1"/>
-        <v>4.6748216300280471E-3</v>
-      </c>
-      <c r="G16" s="3">
-        <f>$C$5*(1-$C$6*C16)*(1-$C$7*(B16-273))</f>
-        <v>108121186324.80002</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" s="1">
-        <v>1259.9960000000001</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1.2109999999999999E-2</v>
-      </c>
-      <c r="E17" s="5">
-        <f t="shared" si="0"/>
-        <v>1.2036907354540168E-2</v>
-      </c>
-      <c r="F17" s="7">
-        <f t="shared" si="1"/>
-        <v>6.0723775058600998E-3</v>
-      </c>
-      <c r="G17" s="3">
-        <f>$C$5*(1-$C$6*C17)*(1-$C$7*(B17-273))</f>
-        <v>83077818126.000015</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18" s="1">
-        <v>1499.9960000000001</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1.7057300000000001E-2</v>
-      </c>
-      <c r="E18" s="5">
-        <f t="shared" si="0"/>
-        <v>1.6912945673136795E-2</v>
-      </c>
-      <c r="F18" s="7">
-        <f t="shared" si="1"/>
-        <v>8.5351380920289429E-3</v>
-      </c>
-      <c r="G18" s="3">
-        <f t="shared" ref="G18" si="2">$C$5*(1-$C$6*C18)*(1-$C$7*(B18-273))</f>
-        <v>59126305927.20002</v>
-      </c>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="2:10">
-      <c r="B21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="2:10">
-      <c r="D22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" t="s">
-        <v>0</v>
-      </c>
-      <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="2:10">
-      <c r="B23" s="1">
-        <v>531.88589999999999</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="D23" s="1">
-        <v>-1.604081E-3</v>
-      </c>
-      <c r="E23" s="5">
-        <f>-E14*G23</f>
-        <v>-1.6051283674470376E-3</v>
-      </c>
-      <c r="F23" s="7">
-        <f t="shared" ref="F23:F27" si="3">(D23-E23)/E23</f>
-        <v>-6.5251319974076545E-4</v>
-      </c>
-      <c r="G23" s="3">
-        <f>0.288 - 0.286*C23</f>
-        <v>0.25939999999999996</v>
-      </c>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="2:10">
-      <c r="B24" s="1">
-        <v>779.99620000000004</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="D24" s="1">
-        <v>-1.82395E-3</v>
-      </c>
-      <c r="E24" s="5">
-        <f t="shared" ref="E24:E27" si="4">-E15*G24</f>
-        <v>-1.8256111851538196E-3</v>
-      </c>
-      <c r="F24" s="7">
-        <f t="shared" si="3"/>
-        <v>-9.0993370731327688E-4</v>
-      </c>
-      <c r="G24" s="3">
-        <f t="shared" ref="G24:G27" si="5">0.288 - 0.286*C24</f>
-        <v>0.24509999999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10">
-      <c r="B25" s="1">
-        <v>1019.996</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="D25" s="1">
-        <v>-2.1323710000000001E-3</v>
-      </c>
-      <c r="E25" s="5">
-        <f t="shared" si="4"/>
-        <v>-2.1346417649050604E-3</v>
-      </c>
-      <c r="F25" s="7">
-        <f t="shared" si="3"/>
-        <v>-1.0637686109178392E-3</v>
-      </c>
-      <c r="G25" s="3">
-        <f t="shared" si="5"/>
-        <v>0.23079999999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="B26" s="1">
-        <v>1259.9960000000001</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="D26" s="1">
-        <v>-2.602601E-3</v>
-      </c>
-      <c r="E26" s="5">
-        <f t="shared" si="4"/>
-        <v>-2.6059904422579458E-3</v>
-      </c>
-      <c r="F26" s="7">
-        <f t="shared" si="3"/>
-        <v>-1.3006349535991096E-3</v>
-      </c>
-      <c r="G26" s="3">
-        <f t="shared" si="5"/>
-        <v>0.21649999999999997</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10">
-      <c r="B27" s="1">
-        <v>1499.9960000000001</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="D27" s="1">
-        <v>-3.4139610000000001E-3</v>
-      </c>
-      <c r="E27" s="5">
-        <f t="shared" si="4"/>
-        <v>-3.4197976151082599E-3</v>
-      </c>
-      <c r="F27" s="7">
-        <f t="shared" si="3"/>
-        <v>-1.7067136027215108E-3</v>
-      </c>
-      <c r="G27" s="3">
-        <f t="shared" si="5"/>
-        <v>0.20219999999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10">
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="3:10">
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="3:10">
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="3:10">
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="3:10">
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="3:10">
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="3:10">
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="3:10">
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="3:10">
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="3:10">
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-    </row>
-    <row r="42" spans="3:10">
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="3:10">
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="3:10">
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Equation.DSMT4" shapeId="4097" r:id="rId3">
-          <objectPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>63500</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>596900</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Equation.DSMT4" shapeId="4097" r:id="rId3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </oleObjects>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F39"/>
+  <dimension ref="A3:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1613,7 +988,7 @@
     <col min="6" max="6" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6">
+    <row r="3" spans="1:6">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -1621,7 +996,7 @@
         <v>1.007E-5</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="1:6">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -1629,290 +1004,340 @@
         <v>1.1700000000000001E-9</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="1:6">
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="1:6">
       <c r="C9" s="1"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="2:6">
-      <c r="E10" s="4"/>
+    <row r="10" spans="1:6">
+      <c r="E10" s="3"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="2:6">
-      <c r="E11" s="4"/>
+    <row r="11" spans="1:6">
+      <c r="E11" s="3"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
       <c r="B12" t="s">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="1">
-        <v>200</v>
-      </c>
-      <c r="C14" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="5">
+        <v>300</v>
+      </c>
+      <c r="C14" s="5">
         <v>0</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="5">
         <v>0</v>
       </c>
       <c r="E14" s="6"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="1">
-        <v>419.99329999999998</v>
-      </c>
-      <c r="C15" s="8">
-        <v>2.2978460000000001E-3</v>
-      </c>
-      <c r="D15" s="8">
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="5">
+        <v>420</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1.259739E-3</v>
+      </c>
+      <c r="D15" s="4">
         <f>EXP($C$3*(B15-$B$14)+$C$4/2*(B15^2-$B$14^2))-1</f>
-        <v>2.297759050104764E-3</v>
-      </c>
-      <c r="E15" s="9">
-        <f t="shared" ref="E15:E24" si="0">(C15-D15)/D15</f>
-        <v>3.7841171915795563E-5</v>
-      </c>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="1">
-        <v>539.99630000000002</v>
-      </c>
-      <c r="C16" s="8">
-        <v>3.5773889999999998E-3</v>
-      </c>
-      <c r="D16" s="8">
-        <f t="shared" ref="D16:D24" si="1">EXP($C$3*(B16-$B$14)+$C$4/2*(B16^2-$B$14^2))-1</f>
-        <v>3.5773298284837995E-3</v>
-      </c>
-      <c r="E16" s="9">
+        <v>1.2597368026607825E-3</v>
+      </c>
+      <c r="E15" s="6">
+        <f>(C15-D15)/D15*100</f>
+        <v>1.7442843718148024E-4</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="5">
+        <v>540</v>
+      </c>
+      <c r="C16" s="4">
+        <v>2.537957E-3</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" ref="D16:D24" si="0">EXP($C$3*(B16-$B$14)+$C$4/2*(B16^2-$B$14^2))-1</f>
+        <v>2.5379511592475978E-3</v>
+      </c>
+      <c r="E16" s="6">
+        <f t="shared" ref="E16:E24" si="1">(C16-D16)/D16*100</f>
+        <v>2.3013651704242201E-4</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="5">
+        <v>660</v>
+      </c>
+      <c r="C17" s="4">
+        <v>3.834718E-3</v>
+      </c>
+      <c r="D17" s="4">
         <f t="shared" si="0"/>
-        <v>1.654069348851826E-5</v>
-      </c>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="1">
-        <v>659.99630000000002</v>
-      </c>
-      <c r="C17" s="8">
-        <v>4.8754949999999997E-3</v>
-      </c>
-      <c r="D17" s="8">
+        <v>3.8347097568860455E-3</v>
+      </c>
+      <c r="E17" s="6">
         <f t="shared" si="1"/>
-        <v>4.8754323152853107E-3</v>
-      </c>
-      <c r="E17" s="9">
+        <v>2.1496057008327368E-4</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="5">
+        <v>780</v>
+      </c>
+      <c r="C18" s="4">
+        <v>5.1500920000000002E-3</v>
+      </c>
+      <c r="D18" s="4">
         <f t="shared" si="0"/>
-        <v>1.2857262830291428E-5</v>
-      </c>
-      <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="1">
-        <v>779.99630000000002</v>
-      </c>
-      <c r="C18" s="8">
-        <v>6.1922319999999998E-3</v>
-      </c>
-      <c r="D18" s="8">
+        <v>5.1500803063093681E-3</v>
+      </c>
+      <c r="E18" s="6">
         <f t="shared" si="1"/>
-        <v>6.1921660483970076E-3</v>
-      </c>
-      <c r="E18" s="9">
+        <v>2.2705841339604052E-4</v>
+      </c>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="5">
+        <v>900</v>
+      </c>
+      <c r="C19" s="4">
+        <v>6.4841459999999997E-3</v>
+      </c>
+      <c r="D19" s="4">
         <f t="shared" si="0"/>
-        <v>1.0650813055840549E-5</v>
-      </c>
-      <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="1">
-        <v>899.99630000000002</v>
-      </c>
-      <c r="C19" s="8">
-        <v>7.5276689999999999E-3</v>
-      </c>
-      <c r="D19" s="8">
+        <v>6.4841315477479622E-3</v>
+      </c>
+      <c r="E19" s="6">
         <f t="shared" si="1"/>
-        <v>7.5275998392869692E-3</v>
-      </c>
-      <c r="E19" s="9">
+        <v>2.2288647185900857E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="5">
+        <v>1020</v>
+      </c>
+      <c r="C20" s="4">
+        <v>7.836951E-3</v>
+      </c>
+      <c r="D20" s="4">
         <f t="shared" si="0"/>
-        <v>9.1876181661137497E-6</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="1">
-        <v>1019.996</v>
-      </c>
-      <c r="C20" s="8">
-        <v>8.8818769999999998E-3</v>
-      </c>
-      <c r="D20" s="8">
+        <v>7.8369332569148131E-3</v>
+      </c>
+      <c r="E20" s="6">
         <f t="shared" si="1"/>
-        <v>8.8818001269479474E-3</v>
-      </c>
-      <c r="E20" s="9">
+        <v>2.2640342344631829E-4</v>
+      </c>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1140</v>
+      </c>
+      <c r="C21" s="4">
+        <v>9.2085770000000008E-3</v>
+      </c>
+      <c r="D21" s="4">
         <f t="shared" si="0"/>
-        <v>8.6551206910393389E-6</v>
-      </c>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="1">
-        <v>1139.9960000000001</v>
-      </c>
-      <c r="C21" s="8">
-        <v>1.0254930000000001E-2</v>
-      </c>
-      <c r="D21" s="8">
+        <v>9.2085562510852981E-3</v>
+      </c>
+      <c r="E21" s="6">
         <f t="shared" si="1"/>
-        <v>1.0254844572914923E-2</v>
-      </c>
-      <c r="E21" s="9">
+        <v>2.2532212582464315E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="5">
+        <v>1260</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1.05991E-2</v>
+      </c>
+      <c r="D22" s="4">
         <f t="shared" si="0"/>
-        <v>8.3304124670368403E-6</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="1">
-        <v>1259.9960000000001</v>
-      </c>
-      <c r="C22" s="8">
-        <v>1.164689E-2</v>
-      </c>
-      <c r="D22" s="8">
+        <v>1.0599072395272469E-2</v>
+      </c>
+      <c r="E22" s="6">
         <f t="shared" si="1"/>
-        <v>1.1646801754656932E-2</v>
-      </c>
-      <c r="E22" s="9">
+        <v>2.6044474933407881E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="5">
+        <v>1380</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1.200858E-2</v>
+      </c>
+      <c r="D23" s="4">
         <f t="shared" si="0"/>
-        <v>7.5767875959832977E-6</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="1">
-        <v>1379.9960000000001</v>
-      </c>
-      <c r="C23" s="8">
-        <v>1.3057829999999999E-2</v>
-      </c>
-      <c r="D23" s="8">
+        <v>1.2008554608499589E-2</v>
+      </c>
+      <c r="E23" s="6">
         <f t="shared" si="1"/>
-        <v>1.3057744666763904E-2</v>
-      </c>
-      <c r="E23" s="9">
+        <v>2.114451009196607E-4</v>
+      </c>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="5">
+        <v>1500</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1.343711E-2</v>
+      </c>
+      <c r="D24" s="4">
         <f t="shared" si="0"/>
-        <v>6.5350669869147335E-6</v>
-      </c>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="1">
-        <v>1499.9960000000001</v>
-      </c>
-      <c r="C24" s="8">
-        <v>1.448784E-2</v>
-      </c>
-      <c r="D24" s="8">
+        <v>1.3437076870169928E-2</v>
+      </c>
+      <c r="E24" s="6">
         <f t="shared" si="1"/>
-        <v>1.4487747365304227E-2</v>
-      </c>
-      <c r="E24" s="9">
-        <f t="shared" si="0"/>
-        <v>6.3940027001962518E-6</v>
+        <v>2.4655533634376607E-4</v>
       </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="1:6">
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="1:6">
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="1:6">
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="1:6">
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="1:6">
+      <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="1:6">
+      <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="2:6">
+    <row r="31" spans="1:6">
+      <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="1:6">
+      <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="5:6">
+    <row r="33" spans="4:6">
+      <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="5:6">
+    <row r="34" spans="4:6">
+      <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="5:6">
+    <row r="35" spans="4:6">
+      <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="5:6">
+    <row r="36" spans="4:6">
+      <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="5:6">
+    <row r="37" spans="4:6">
+      <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="5:6">
+    <row r="38" spans="4:6">
+      <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="5:6">
+    <row r="39" spans="4:6">
+      <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
